--- a/exports/yield_files/HIF 6.xlsx
+++ b/exports/yield_files/HIF 6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -86,7 +86,16 @@
     <t xml:space="preserve">RM19-2657</t>
   </si>
   <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
     <t xml:space="preserve">RM19-2678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
   </si>
   <si>
     <t xml:space="preserve">RM19-2686</t>
@@ -167,6 +176,9 @@
     <t xml:space="preserve">Ellis</t>
   </si>
   <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
     <t xml:space="preserve">Osage</t>
   </si>
   <si>
@@ -177,12 +189,6 @@
   </si>
   <si>
     <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
   </si>
   <si>
     <t xml:space="preserve">w</t>
@@ -606,17 +612,33 @@
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="J2" t="n">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>30</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="R2" t="n">
+        <v>2041.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U2" t="n">
         <v>56.3</v>
       </c>
@@ -645,17 +667,33 @@
       </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
+      <c r="J3" t="n">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>28</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+      <c r="R3" t="n">
+        <v>2240.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U3" t="n">
         <v>56.1</v>
       </c>
@@ -685,15 +723,25 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>28</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
+      <c r="R4" t="n">
+        <v>2169.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>14.7</v>
+      </c>
       <c r="T4"/>
       <c r="U4" t="n">
         <v>55.9</v>
@@ -710,7 +758,7 @@
         <v>2021</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -723,17 +771,33 @@
       </c>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
+      <c r="R5" t="n">
+        <v>1956.9</v>
+      </c>
+      <c r="S5" t="n">
+        <v>15</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U5" t="n">
         <v>55.5</v>
       </c>
@@ -749,7 +813,7 @@
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -762,17 +826,33 @@
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="n">
+        <v>28</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+      <c r="R6" t="n">
+        <v>2121.1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U6" t="n">
         <v>56.4</v>
       </c>
@@ -788,7 +868,7 @@
         <v>2021</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -802,15 +882,25 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="n">
+        <v>25</v>
+      </c>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
+      <c r="R7" t="n">
+        <v>1746.6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>16.1</v>
+      </c>
       <c r="T7"/>
       <c r="U7" t="n">
         <v>55.6</v>
@@ -827,7 +917,7 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -840,17 +930,33 @@
       </c>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
+      <c r="J8" t="n">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="n">
+        <v>29</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
+      <c r="R8" t="n">
+        <v>1567.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U8" t="n">
         <v>55.6</v>
       </c>
@@ -866,7 +972,7 @@
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -879,17 +985,33 @@
       </c>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
+      <c r="J9" t="n">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="n">
+        <v>29</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
+      <c r="R9" t="n">
+        <v>1383.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U9" t="n">
         <v>55.8</v>
       </c>
@@ -905,7 +1027,7 @@
         <v>2021</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -919,15 +1041,25 @@
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="n">
+        <v>32</v>
+      </c>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
+      <c r="R10" t="n">
+        <v>1703.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>15.5</v>
+      </c>
       <c r="T10"/>
       <c r="U10" t="n">
         <v>55.9</v>
@@ -944,7 +1076,7 @@
         <v>2021</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -957,17 +1089,33 @@
       </c>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>26</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
+      <c r="R11" t="n">
+        <v>1243.2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U11" t="n">
         <v>54.7</v>
       </c>
@@ -983,7 +1131,7 @@
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -996,17 +1144,33 @@
       </c>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
+      <c r="J12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>30</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
+      <c r="R12" t="n">
+        <v>1802</v>
+      </c>
+      <c r="S12" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U12" t="n">
         <v>55.3</v>
       </c>
@@ -1022,7 +1186,7 @@
         <v>2021</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1036,15 +1200,25 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>30</v>
+      </c>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
+      <c r="R13" t="n">
+        <v>1737.3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>15.8</v>
+      </c>
       <c r="T13"/>
       <c r="U13" t="n">
         <v>55.3</v>
@@ -1061,7 +1235,7 @@
         <v>2021</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1075,15 +1249,25 @@
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>30</v>
+      </c>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
+      <c r="R14" t="n">
+        <v>1737.3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>15.8</v>
+      </c>
       <c r="T14"/>
       <c r="U14" t="n">
         <v>55.6</v>
@@ -1100,7 +1284,7 @@
         <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1113,17 +1297,33 @@
       </c>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
+      <c r="J15" t="n">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="n">
+        <v>28</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
+      <c r="R15" t="n">
+        <v>1323.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U15" t="n">
         <v>56</v>
       </c>
@@ -1139,7 +1339,7 @@
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1152,17 +1352,33 @@
       </c>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
+      <c r="J16" t="n">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="n">
+        <v>32</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
+      <c r="R16" t="n">
+        <v>1299.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U16" t="n">
         <v>55.3</v>
       </c>
@@ -1178,7 +1394,7 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1192,15 +1408,25 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="n">
+        <v>28</v>
+      </c>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
+      <c r="R17" t="n">
+        <v>1268.2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>13.3</v>
+      </c>
       <c r="T17"/>
       <c r="U17" t="n">
         <v>55.7</v>
@@ -1217,7 +1443,7 @@
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
         <v>6</v>
@@ -1230,17 +1456,33 @@
       </c>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
+      <c r="J18" t="n">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="n">
+        <v>30</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
+      <c r="R18" t="n">
+        <v>1444.5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U18" t="n">
         <v>56.2</v>
       </c>
@@ -1256,7 +1498,7 @@
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
         <v>6</v>
@@ -1269,17 +1511,33 @@
       </c>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+      <c r="J19" t="n">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="n">
+        <v>29</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
+      <c r="R19" t="n">
+        <v>1401.2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U19" t="n">
         <v>56</v>
       </c>
@@ -1295,7 +1553,7 @@
         <v>2021</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
@@ -1309,15 +1567,25 @@
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="n">
+        <v>32</v>
+      </c>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
+      <c r="R20" t="n">
+        <v>1678.7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>15.1</v>
+      </c>
       <c r="T20"/>
       <c r="U20" t="n">
         <v>55.6</v>
@@ -1334,7 +1602,7 @@
         <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -1347,17 +1615,33 @@
       </c>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
+      <c r="J21" t="n">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="n">
+        <v>36</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
+      <c r="R21" t="n">
+        <v>1478.5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U21" t="n">
         <v>55.5</v>
       </c>
@@ -1373,7 +1657,7 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -1386,17 +1670,33 @@
       </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
+      <c r="J22" t="n">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="n">
+        <v>40</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
+      <c r="R22" t="n">
+        <v>1420.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>17</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U22" t="n">
         <v>55.8</v>
       </c>
@@ -1412,7 +1712,7 @@
         <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -1425,17 +1725,33 @@
       </c>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
+      <c r="J23" t="n">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="n">
+        <v>40</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
+      <c r="R23" t="n">
+        <v>1420.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>17</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U23" t="n">
         <v>55.5</v>
       </c>
@@ -1451,7 +1767,7 @@
         <v>2021</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -1465,15 +1781,25 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" t="n">
+        <v>36</v>
+      </c>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
+      <c r="R24" t="n">
+        <v>1272.7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>17.9</v>
+      </c>
       <c r="T24"/>
       <c r="U24" t="n">
         <v>54.7</v>
@@ -1490,7 +1816,7 @@
         <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -1503,17 +1829,33 @@
       </c>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
+      <c r="J25" t="n">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" t="n">
+        <v>42</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
+      <c r="R25" t="n">
+        <v>1475</v>
+      </c>
+      <c r="S25" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U25" t="n">
         <v>55.8</v>
       </c>
@@ -1529,7 +1871,7 @@
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -1542,17 +1884,33 @@
       </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
+      <c r="J26" t="n">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="n">
+        <v>42</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
+      <c r="R26" t="n">
+        <v>1475</v>
+      </c>
+      <c r="S26" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U26" t="n">
         <v>55.7</v>
       </c>
@@ -1568,7 +1926,7 @@
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -1581,17 +1939,33 @@
       </c>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
+      <c r="J27" t="n">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="n">
+        <v>36</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
+      <c r="R27" t="n">
+        <v>1536.8</v>
+      </c>
+      <c r="S27" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U27" t="n">
         <v>55.1</v>
       </c>
@@ -1607,7 +1981,7 @@
         <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -1620,17 +1994,33 @@
       </c>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
+      <c r="J28" t="n">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" t="n">
+        <v>36</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
+      <c r="R28" t="n">
+        <v>1536.8</v>
+      </c>
+      <c r="S28" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U28" t="n">
         <v>56.5</v>
       </c>
@@ -1646,7 +2036,7 @@
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -1660,15 +2050,25 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" t="n">
+        <v>36</v>
+      </c>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
+      <c r="R29" t="n">
+        <v>1344.2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>17.6</v>
+      </c>
       <c r="T29"/>
       <c r="U29" t="n">
         <v>55.5</v>
@@ -1685,7 +2085,7 @@
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -1698,17 +2098,33 @@
       </c>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
+      <c r="J30" t="n">
+        <v>6</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>26</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
+      <c r="R30" t="n">
+        <v>1221.8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U30" t="n">
         <v>54.9</v>
       </c>
@@ -1724,7 +2140,7 @@
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -1737,17 +2153,33 @@
       </c>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
+      <c r="J31" t="n">
+        <v>9</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>28</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
+      <c r="R31" t="n">
+        <v>1558.8</v>
+      </c>
+      <c r="S31" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U31" t="n">
         <v>54.7</v>
       </c>
@@ -1763,7 +2195,7 @@
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -1776,17 +2208,33 @@
       </c>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
+      <c r="J32" t="n">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>28</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
+      <c r="R32" t="n">
+        <v>1558.8</v>
+      </c>
+      <c r="S32" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U32" t="n">
         <v>55</v>
       </c>
@@ -1802,7 +2250,7 @@
         <v>2021</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -1816,15 +2264,25 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="n">
+        <v>26</v>
+      </c>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
+      <c r="R33" t="n">
+        <v>1301.4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15.8</v>
+      </c>
       <c r="T33"/>
       <c r="U33" t="n">
         <v>55.7</v>
@@ -1841,7 +2299,7 @@
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -1855,15 +2313,25 @@
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
+      <c r="K34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>26</v>
+      </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
+      <c r="R34" t="n">
+        <v>1301.4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>15.8</v>
+      </c>
       <c r="T34"/>
       <c r="U34" t="n">
         <v>55.6</v>
@@ -1880,7 +2348,7 @@
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -1893,17 +2361,33 @@
       </c>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
+      <c r="J35" t="n">
+        <v>7</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="n">
+        <v>22</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
+      <c r="R35" t="n">
+        <v>1289.9</v>
+      </c>
+      <c r="S35" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U35" t="n">
         <v>55.7</v>
       </c>
@@ -1919,7 +2403,7 @@
         <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -1932,17 +2416,33 @@
       </c>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
+      <c r="J36" t="n">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="n">
+        <v>32</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
+      <c r="R36" t="n">
+        <v>1659.6</v>
+      </c>
+      <c r="S36" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U36" t="n">
         <v>55.8</v>
       </c>
@@ -1958,7 +2458,7 @@
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -1972,15 +2472,25 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>32</v>
+      </c>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
+      <c r="R37" t="n">
+        <v>1529.3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>15.3</v>
+      </c>
       <c r="T37"/>
       <c r="U37" t="n">
         <v>55.7</v>
@@ -1997,7 +2507,7 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E38" t="n">
         <v>11</v>
@@ -2010,17 +2520,33 @@
       </c>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
+      <c r="J38" t="n">
+        <v>7</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="n">
+        <v>27</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
+      <c r="R38" t="n">
+        <v>1353.1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U38" t="n">
         <v>54.5</v>
       </c>
@@ -2036,7 +2562,7 @@
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E39" t="n">
         <v>11</v>
@@ -2049,17 +2575,33 @@
       </c>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
+      <c r="J39" t="n">
+        <v>8</v>
+      </c>
+      <c r="K39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>28</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
+      <c r="R39" t="n">
+        <v>1531.3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U39" t="n">
         <v>55.7</v>
       </c>
@@ -2075,7 +2617,7 @@
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E40" t="n">
         <v>11</v>
@@ -2089,15 +2631,25 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
+      <c r="K40" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" t="n">
+        <v>26</v>
+      </c>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
+      <c r="R40" t="n">
+        <v>1243.1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>15.3</v>
+      </c>
       <c r="T40"/>
       <c r="U40" t="n">
         <v>55.4</v>
@@ -2114,7 +2666,7 @@
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>
@@ -2127,17 +2679,33 @@
       </c>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
+      <c r="J41" t="n">
+        <v>7</v>
+      </c>
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" t="n">
+        <v>24</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
+      <c r="R41" t="n">
+        <v>1129.8</v>
+      </c>
+      <c r="S41" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U41" t="n">
         <v>55.7</v>
       </c>
@@ -2153,7 +2721,7 @@
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E42" t="n">
         <v>12</v>
@@ -2166,17 +2734,33 @@
       </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
+      <c r="J42" t="n">
+        <v>9</v>
+      </c>
+      <c r="K42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" t="n">
+        <v>30</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
+      <c r="R42" t="n">
+        <v>1522.4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U42" t="n">
         <v>55.8</v>
       </c>
@@ -2192,7 +2776,7 @@
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E43" t="n">
         <v>12</v>
@@ -2206,15 +2790,25 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" t="n">
+        <v>28</v>
+      </c>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
+      <c r="R43" t="n">
+        <v>1538.3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>13.2</v>
+      </c>
       <c r="T43"/>
       <c r="U43" t="n">
         <v>56</v>
@@ -2231,7 +2825,7 @@
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -2244,17 +2838,33 @@
       </c>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
+      <c r="J44" t="n">
+        <v>7</v>
+      </c>
+      <c r="K44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" t="n">
+        <v>30</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
+      <c r="R44" t="n">
+        <v>1605.2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U44" t="n">
         <v>55.5</v>
       </c>
@@ -2270,7 +2880,7 @@
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -2283,17 +2893,33 @@
       </c>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
+      <c r="J45" t="n">
+        <v>7</v>
+      </c>
+      <c r="K45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" t="n">
+        <v>30</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
+      <c r="R45" t="n">
+        <v>1568.5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U45" t="n">
         <v>54.9</v>
       </c>
@@ -2309,7 +2935,7 @@
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -2323,15 +2949,25 @@
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
+      <c r="K46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" t="n">
+        <v>32</v>
+      </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
+      <c r="R46" t="n">
+        <v>1783.5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>15.7</v>
+      </c>
       <c r="T46"/>
       <c r="U46" t="n">
         <v>55.3</v>
@@ -2348,7 +2984,7 @@
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E47" t="n">
         <v>14</v>
@@ -2361,17 +2997,33 @@
       </c>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
+      <c r="J47" t="n">
+        <v>12</v>
+      </c>
+      <c r="K47" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" t="n">
+        <v>26</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
+      <c r="R47" t="n">
+        <v>1172.7</v>
+      </c>
+      <c r="S47" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U47" t="n">
         <v>55.4</v>
       </c>
@@ -2387,7 +3039,7 @@
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E48" t="n">
         <v>14</v>
@@ -2400,17 +3052,33 @@
       </c>
       <c r="H48"/>
       <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
+      <c r="J48" t="n">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" t="n">
+        <v>28</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
+      <c r="R48" t="n">
+        <v>1169.5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U48" t="n">
         <v>55.9</v>
       </c>
@@ -2426,7 +3094,7 @@
         <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E49" t="n">
         <v>14</v>
@@ -2440,15 +3108,25 @@
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
+      <c r="K49" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" t="n">
+        <v>25</v>
+      </c>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
+      <c r="R49" t="n">
+        <v>1302.6</v>
+      </c>
+      <c r="S49" t="n">
+        <v>15.7</v>
+      </c>
       <c r="T49"/>
       <c r="U49" t="n">
         <v>56.2</v>
@@ -2465,7 +3143,7 @@
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E50" t="n">
         <v>15</v>
@@ -2478,17 +3156,33 @@
       </c>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
+      <c r="J50" t="n">
+        <v>9</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" t="n">
+        <v>28</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
+      <c r="R50" t="n">
+        <v>939.6</v>
+      </c>
+      <c r="S50" t="n">
+        <v>16</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U50" t="n">
         <v>56.8</v>
       </c>
@@ -2504,7 +3198,7 @@
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E51" t="n">
         <v>15</v>
@@ -2517,17 +3211,33 @@
       </c>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
+      <c r="J51" t="n">
+        <v>9</v>
+      </c>
+      <c r="K51" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" t="n">
+        <v>31</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
+      <c r="R51" t="n">
+        <v>1110.6</v>
+      </c>
+      <c r="S51" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U51" t="n">
         <v>56.6</v>
       </c>
@@ -2543,7 +3253,7 @@
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E52" t="n">
         <v>15</v>
@@ -2557,15 +3267,25 @@
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
+      <c r="K52" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" t="n">
+        <v>29</v>
+      </c>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
+      <c r="R52" t="n">
+        <v>923.3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>16.1</v>
+      </c>
       <c r="T52"/>
       <c r="U52" t="n">
         <v>57.1</v>
@@ -2582,7 +3302,7 @@
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -2595,17 +3315,33 @@
       </c>
       <c r="H53"/>
       <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
+      <c r="J53" t="n">
+        <v>9</v>
+      </c>
+      <c r="K53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" t="n">
+        <v>35</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53"/>
-      <c r="T53"/>
+      <c r="R53" t="n">
+        <v>787</v>
+      </c>
+      <c r="S53" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U53" t="n">
         <v>56.8</v>
       </c>
@@ -2621,7 +3357,7 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -2634,17 +3370,33 @@
       </c>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
+      <c r="J54" t="n">
+        <v>12</v>
+      </c>
+      <c r="K54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" t="n">
+        <v>36</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
+      <c r="R54" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U54" t="n">
         <v>56.9</v>
       </c>
@@ -2660,7 +3412,7 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -2674,15 +3426,25 @@
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
+      <c r="K55" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" t="n">
+        <v>45</v>
+      </c>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
+      <c r="R55" t="n">
+        <v>924.5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>14</v>
+      </c>
       <c r="T55"/>
       <c r="U55" t="n">
         <v>56.7</v>
@@ -2699,7 +3461,7 @@
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E56" t="n">
         <v>17</v>
@@ -2712,17 +3474,33 @@
       </c>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
+      <c r="J56" t="n">
+        <v>12</v>
+      </c>
+      <c r="K56" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" t="n">
+        <v>28</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
+      <c r="R56" t="n">
+        <v>1697.6</v>
+      </c>
+      <c r="S56" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U56" t="n">
         <v>57.5</v>
       </c>
@@ -2738,7 +3516,7 @@
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E57" t="n">
         <v>17</v>
@@ -2751,17 +3529,33 @@
       </c>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
+      <c r="J57" t="n">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" t="n">
+        <v>28</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
+      <c r="R57" t="n">
+        <v>1777.7</v>
+      </c>
+      <c r="S57" t="n">
+        <v>13</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U57" t="n">
         <v>57.4</v>
       </c>
@@ -2777,7 +3571,7 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E58" t="n">
         <v>17</v>
@@ -2791,15 +3585,25 @@
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
+      <c r="K58" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" t="n">
+        <v>29</v>
+      </c>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
+      <c r="R58" t="n">
+        <v>1556.7</v>
+      </c>
+      <c r="S58" t="n">
+        <v>13</v>
+      </c>
       <c r="T58"/>
       <c r="U58" t="n">
         <v>57.5</v>
@@ -2816,7 +3620,7 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E59" t="n">
         <v>18</v>
@@ -2829,17 +3633,33 @@
       </c>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
+      <c r="J59" t="n">
+        <v>9</v>
+      </c>
+      <c r="K59" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" t="n">
+        <v>30</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
+      <c r="R59" t="n">
+        <v>1620</v>
+      </c>
+      <c r="S59" t="n">
+        <v>13</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U59" t="n">
         <v>57.6</v>
       </c>
@@ -2855,7 +3675,7 @@
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E60" t="n">
         <v>18</v>
@@ -2868,17 +3688,33 @@
       </c>
       <c r="H60"/>
       <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
+      <c r="J60" t="n">
+        <v>12</v>
+      </c>
+      <c r="K60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" t="n">
+        <v>34</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2</v>
+      </c>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
+      <c r="R60" t="n">
+        <v>1715.5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U60" t="n">
         <v>57.6</v>
       </c>
@@ -2894,7 +3730,7 @@
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E61" t="n">
         <v>18</v>
@@ -2908,15 +3744,25 @@
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" t="n">
+        <v>35</v>
+      </c>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
+      <c r="R61" t="n">
+        <v>1610</v>
+      </c>
+      <c r="S61" t="n">
+        <v>13.7</v>
+      </c>
       <c r="T61"/>
       <c r="U61" t="n">
         <v>57.1</v>
@@ -2933,7 +3779,7 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E62" t="n">
         <v>19</v>
@@ -2946,17 +3792,33 @@
       </c>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
+      <c r="J62" t="n">
+        <v>10</v>
+      </c>
+      <c r="K62" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62" t="n">
+        <v>32</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
+      <c r="R62" t="n">
+        <v>1721</v>
+      </c>
+      <c r="S62" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1</v>
+      </c>
       <c r="U62" t="n">
         <v>57.4</v>
       </c>
@@ -2972,7 +3834,7 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E63" t="n">
         <v>19</v>
@@ -2985,17 +3847,33 @@
       </c>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
+      <c r="J63" t="n">
+        <v>12</v>
+      </c>
+      <c r="K63" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" t="n">
+        <v>34</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
+      <c r="R63" t="n">
+        <v>1833.8</v>
+      </c>
+      <c r="S63" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1</v>
+      </c>
       <c r="U63" t="n">
         <v>57.7</v>
       </c>
@@ -3011,7 +3889,7 @@
         <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E64" t="n">
         <v>19</v>
@@ -3025,15 +3903,25 @@
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
+      <c r="K64" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" t="n">
+        <v>38</v>
+      </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
+      <c r="R64" t="n">
+        <v>1517.8</v>
+      </c>
+      <c r="S64" t="n">
+        <v>15</v>
+      </c>
       <c r="T64"/>
       <c r="U64" t="n">
         <v>57</v>
@@ -3050,7 +3938,7 @@
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E65" t="n">
         <v>20</v>
@@ -3063,17 +3951,33 @@
       </c>
       <c r="H65"/>
       <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
+      <c r="J65" t="n">
+        <v>12</v>
+      </c>
+      <c r="K65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" t="n">
+        <v>34</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65"/>
-      <c r="S65"/>
-      <c r="T65"/>
+      <c r="R65" t="n">
+        <v>1445.5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1</v>
+      </c>
       <c r="U65" t="n">
         <v>57.1</v>
       </c>
@@ -3089,7 +3993,7 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E66" t="n">
         <v>20</v>
@@ -3102,17 +4006,33 @@
       </c>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
+      <c r="J66" t="n">
+        <v>12</v>
+      </c>
+      <c r="K66" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" t="s">
+        <v>25</v>
+      </c>
+      <c r="M66" t="n">
+        <v>32</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
+      <c r="R66" t="n">
+        <v>1746.8</v>
+      </c>
+      <c r="S66" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1</v>
+      </c>
       <c r="U66" t="n">
         <v>57</v>
       </c>
@@ -3128,7 +4048,7 @@
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E67" t="n">
         <v>20</v>
@@ -3142,15 +4062,25 @@
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
+      <c r="K67" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" t="n">
+        <v>32</v>
+      </c>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
+      <c r="R67" t="n">
+        <v>1584.4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>13.8</v>
+      </c>
       <c r="T67"/>
       <c r="U67" t="n">
         <v>57.7</v>
@@ -3167,7 +4097,7 @@
         <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E68" t="n">
         <v>21</v>
@@ -3180,17 +4110,33 @@
       </c>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
+      <c r="J68" t="n">
+        <v>18</v>
+      </c>
+      <c r="K68" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" t="s">
+        <v>27</v>
+      </c>
+      <c r="M68" t="n">
+        <v>44</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
+      <c r="R68" t="n">
+        <v>1548.5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>13</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U68" t="n">
         <v>55.9</v>
       </c>
@@ -3206,7 +4152,7 @@
         <v>2021</v>
       </c>
       <c r="D69" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E69" t="n">
         <v>21</v>
@@ -3219,17 +4165,33 @@
       </c>
       <c r="H69"/>
       <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
+      <c r="J69" t="n">
+        <v>18</v>
+      </c>
+      <c r="K69" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M69" t="n">
+        <v>40</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
+      </c>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
+      <c r="R69" t="n">
+        <v>1571.9</v>
+      </c>
+      <c r="S69" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U69" t="n">
         <v>55.2</v>
       </c>
@@ -3245,7 +4207,7 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E70" t="n">
         <v>21</v>
@@ -3259,15 +4221,25 @@
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
+      <c r="K70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M70" t="n">
+        <v>46</v>
+      </c>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
+      <c r="R70" t="n">
+        <v>1795.2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>13.2</v>
+      </c>
       <c r="T70"/>
       <c r="U70" t="n">
         <v>56.6</v>
@@ -3284,7 +4256,7 @@
         <v>2021</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E71" t="n">
         <v>22</v>
@@ -3297,17 +4269,33 @@
       </c>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
+      <c r="J71" t="n">
+        <v>18</v>
+      </c>
+      <c r="K71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" t="s">
+        <v>27</v>
+      </c>
+      <c r="M71" t="n">
+        <v>42</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
+      <c r="R71" t="n">
+        <v>1514.1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U71" t="n">
         <v>55.3</v>
       </c>
@@ -3323,7 +4311,7 @@
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E72" t="n">
         <v>22</v>
@@ -3336,17 +4324,33 @@
       </c>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
+      <c r="J72" t="n">
+        <v>18</v>
+      </c>
+      <c r="K72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" t="s">
+        <v>27</v>
+      </c>
+      <c r="M72" t="n">
+        <v>42</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
+      <c r="R72" t="n">
+        <v>1709.9</v>
+      </c>
+      <c r="S72" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U72" t="n">
         <v>56.4</v>
       </c>
@@ -3362,7 +4366,7 @@
         <v>2021</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E73" t="n">
         <v>22</v>
@@ -3376,15 +4380,25 @@
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" t="s">
+        <v>27</v>
+      </c>
+      <c r="M73" t="n">
+        <v>44</v>
+      </c>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
+      <c r="R73" t="n">
+        <v>1965.7</v>
+      </c>
+      <c r="S73" t="n">
+        <v>13.5</v>
+      </c>
       <c r="T73"/>
       <c r="U73" t="n">
         <v>55.5</v>
@@ -3401,7 +4415,7 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E74" t="n">
         <v>23</v>
@@ -3414,17 +4428,33 @@
       </c>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
+      <c r="J74" t="n">
+        <v>16</v>
+      </c>
+      <c r="K74" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" t="n">
+        <v>31</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
+      <c r="R74" t="n">
+        <v>729</v>
+      </c>
+      <c r="S74" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U74" t="n">
         <v>56.6</v>
       </c>
@@ -3440,7 +4470,7 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E75" t="n">
         <v>23</v>
@@ -3453,17 +4483,33 @@
       </c>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
+      <c r="J75" t="n">
+        <v>18</v>
+      </c>
+      <c r="K75" t="s">
+        <v>24</v>
+      </c>
+      <c r="L75" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" t="n">
+        <v>40</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2</v>
+      </c>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
+      <c r="R75" t="n">
+        <v>842.5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U75" t="n">
         <v>56.3</v>
       </c>
@@ -3479,7 +4525,7 @@
         <v>2021</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E76" t="n">
         <v>23</v>
@@ -3493,15 +4539,25 @@
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
+      <c r="K76" t="s">
+        <v>24</v>
+      </c>
+      <c r="L76" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" t="n">
+        <v>38</v>
+      </c>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
+      <c r="R76" t="n">
+        <v>974.5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>13.4</v>
+      </c>
       <c r="T76"/>
       <c r="U76" t="n">
         <v>55.4</v>
@@ -3518,7 +4574,7 @@
         <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E77" t="n">
         <v>24</v>
@@ -3531,17 +4587,33 @@
       </c>
       <c r="H77"/>
       <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
+      <c r="J77" t="n">
+        <v>9</v>
+      </c>
+      <c r="K77" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" t="n">
+        <v>42</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
+      <c r="R77" t="n">
+        <v>1613.9</v>
+      </c>
+      <c r="S77" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U77" t="n">
         <v>56.5</v>
       </c>
@@ -3557,7 +4629,7 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E78" t="n">
         <v>24</v>
@@ -3570,17 +4642,33 @@
       </c>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
+      <c r="J78" t="n">
+        <v>9</v>
+      </c>
+      <c r="K78" t="s">
+        <v>24</v>
+      </c>
+      <c r="L78" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" t="n">
+        <v>46</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
+      <c r="R78" t="n">
+        <v>1546.6</v>
+      </c>
+      <c r="S78" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U78" t="n">
         <v>56.1</v>
       </c>
@@ -3596,7 +4684,7 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E79" t="n">
         <v>24</v>
@@ -3610,15 +4698,25 @@
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
+      <c r="K79" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" t="s">
+        <v>25</v>
+      </c>
+      <c r="M79" t="n">
+        <v>42</v>
+      </c>
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79"/>
+      <c r="R79" t="n">
+        <v>1519.1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>14.7</v>
+      </c>
       <c r="T79"/>
       <c r="U79" t="n">
         <v>56.7</v>
@@ -3635,7 +4733,7 @@
         <v>2021</v>
       </c>
       <c r="D80" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E80" t="n">
         <v>25</v>
@@ -3648,17 +4746,33 @@
       </c>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
+      <c r="J80" t="n">
+        <v>13</v>
+      </c>
+      <c r="K80" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" t="n">
+        <v>38</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2</v>
+      </c>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
+      <c r="R80" t="n">
+        <v>1487.1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U80" t="n">
         <v>56</v>
       </c>
@@ -3674,7 +4788,7 @@
         <v>2021</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E81" t="n">
         <v>25</v>
@@ -3687,17 +4801,33 @@
       </c>
       <c r="H81"/>
       <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
+      <c r="J81" t="n">
+        <v>13</v>
+      </c>
+      <c r="K81" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M81" t="n">
+        <v>42</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3</v>
+      </c>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
+      <c r="R81" t="n">
+        <v>1551.1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U81" t="n">
         <v>56.4</v>
       </c>
@@ -3713,7 +4843,7 @@
         <v>2021</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E82" t="n">
         <v>25</v>
@@ -3727,15 +4857,25 @@
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
+      <c r="K82" t="s">
+        <v>24</v>
+      </c>
+      <c r="L82" t="s">
+        <v>25</v>
+      </c>
+      <c r="M82" t="n">
+        <v>44</v>
+      </c>
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="R82"/>
-      <c r="S82"/>
+      <c r="R82" t="n">
+        <v>1584.1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>15.6</v>
+      </c>
       <c r="T82"/>
       <c r="U82" t="n">
         <v>56.3</v>
@@ -3752,7 +4892,7 @@
         <v>2021</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E83" t="n">
         <v>26</v>
@@ -3765,17 +4905,33 @@
       </c>
       <c r="H83"/>
       <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
+      <c r="J83" t="n">
+        <v>9</v>
+      </c>
+      <c r="K83" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M83" t="n">
+        <v>40</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2</v>
+      </c>
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
-      <c r="R83"/>
-      <c r="S83"/>
-      <c r="T83"/>
+      <c r="R83" t="n">
+        <v>1586</v>
+      </c>
+      <c r="S83" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U83" t="n">
         <v>56.7</v>
       </c>
@@ -3791,7 +4947,7 @@
         <v>2021</v>
       </c>
       <c r="D84" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E84" t="n">
         <v>26</v>
@@ -3804,17 +4960,33 @@
       </c>
       <c r="H84"/>
       <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
+      <c r="J84" t="n">
+        <v>9</v>
+      </c>
+      <c r="K84" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" t="n">
+        <v>44</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
-      <c r="R84"/>
-      <c r="S84"/>
-      <c r="T84"/>
+      <c r="R84" t="n">
+        <v>1656.1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U84" t="n">
         <v>56.9</v>
       </c>
@@ -3830,7 +5002,7 @@
         <v>2021</v>
       </c>
       <c r="D85" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E85" t="n">
         <v>26</v>
@@ -3844,15 +5016,25 @@
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
+      <c r="K85" t="s">
+        <v>24</v>
+      </c>
+      <c r="L85" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" t="n">
+        <v>44</v>
+      </c>
       <c r="N85"/>
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
-      <c r="R85"/>
-      <c r="S85"/>
+      <c r="R85" t="n">
+        <v>1560.9</v>
+      </c>
+      <c r="S85" t="n">
+        <v>14.4</v>
+      </c>
       <c r="T85"/>
       <c r="U85" t="n">
         <v>56.8</v>
@@ -3869,7 +5051,7 @@
         <v>2021</v>
       </c>
       <c r="D86" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E86" t="n">
         <v>27</v>
@@ -3882,17 +5064,33 @@
       </c>
       <c r="H86"/>
       <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
+      <c r="J86" t="n">
+        <v>18</v>
+      </c>
+      <c r="K86" t="s">
+        <v>24</v>
+      </c>
+      <c r="L86" t="s">
+        <v>27</v>
+      </c>
+      <c r="M86" t="n">
+        <v>38</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
-      <c r="R86"/>
-      <c r="S86"/>
-      <c r="T86"/>
+      <c r="R86" t="n">
+        <v>1366.9</v>
+      </c>
+      <c r="S86" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U86" t="n">
         <v>56.7</v>
       </c>
@@ -3908,7 +5106,7 @@
         <v>2021</v>
       </c>
       <c r="D87" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E87" t="n">
         <v>27</v>
@@ -3921,17 +5119,33 @@
       </c>
       <c r="H87"/>
       <c r="I87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
+      <c r="J87" t="n">
+        <v>18</v>
+      </c>
+      <c r="K87" t="s">
+        <v>24</v>
+      </c>
+      <c r="L87" t="s">
+        <v>27</v>
+      </c>
+      <c r="M87" t="n">
+        <v>38</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
-      <c r="R87"/>
-      <c r="S87"/>
-      <c r="T87"/>
+      <c r="R87" t="n">
+        <v>1382.8</v>
+      </c>
+      <c r="S87" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U87" t="n">
         <v>56.9</v>
       </c>
@@ -3947,7 +5161,7 @@
         <v>2021</v>
       </c>
       <c r="D88" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E88" t="n">
         <v>27</v>
@@ -3961,15 +5175,25 @@
       <c r="H88"/>
       <c r="I88"/>
       <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
+      <c r="K88" t="s">
+        <v>24</v>
+      </c>
+      <c r="L88" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" t="n">
+        <v>42</v>
+      </c>
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
-      <c r="R88"/>
-      <c r="S88"/>
+      <c r="R88" t="n">
+        <v>1380.6</v>
+      </c>
+      <c r="S88" t="n">
+        <v>13.3</v>
+      </c>
       <c r="T88"/>
       <c r="U88" t="n">
         <v>57.1</v>
@@ -3986,7 +5210,7 @@
         <v>2021</v>
       </c>
       <c r="D89" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E89" t="n">
         <v>28</v>
@@ -3999,17 +5223,33 @@
       </c>
       <c r="H89"/>
       <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
+      <c r="J89" t="n">
+        <v>12</v>
+      </c>
+      <c r="K89" t="s">
+        <v>54</v>
+      </c>
+      <c r="L89" t="s">
+        <v>27</v>
+      </c>
+      <c r="M89" t="n">
+        <v>24</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
-      <c r="R89"/>
-      <c r="S89"/>
-      <c r="T89"/>
+      <c r="R89" t="n">
+        <v>1856.9</v>
+      </c>
+      <c r="S89" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U89" t="n">
         <v>54.4</v>
       </c>
@@ -4025,7 +5265,7 @@
         <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E90" t="n">
         <v>28</v>
@@ -4038,17 +5278,33 @@
       </c>
       <c r="H90"/>
       <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
+      <c r="J90" t="n">
+        <v>14</v>
+      </c>
+      <c r="K90" t="s">
+        <v>54</v>
+      </c>
+      <c r="L90" t="s">
+        <v>27</v>
+      </c>
+      <c r="M90" t="n">
+        <v>28</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
-      <c r="R90"/>
-      <c r="S90"/>
-      <c r="T90"/>
+      <c r="R90" t="n">
+        <v>2219.4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U90" t="n">
         <v>55</v>
       </c>
@@ -4064,7 +5320,7 @@
         <v>2021</v>
       </c>
       <c r="D91" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E91" t="n">
         <v>28</v>
@@ -4078,15 +5334,25 @@
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
-      <c r="M91"/>
+      <c r="K91" t="s">
+        <v>54</v>
+      </c>
+      <c r="L91" t="s">
+        <v>27</v>
+      </c>
+      <c r="M91" t="n">
+        <v>21</v>
+      </c>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
-      <c r="R91"/>
-      <c r="S91"/>
+      <c r="R91" t="n">
+        <v>1586.8</v>
+      </c>
+      <c r="S91" t="n">
+        <v>11</v>
+      </c>
       <c r="T91"/>
       <c r="U91" t="n">
         <v>54.9</v>
@@ -4103,7 +5369,7 @@
         <v>2021</v>
       </c>
       <c r="D92" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E92" t="n">
         <v>29</v>
@@ -4116,17 +5382,33 @@
       </c>
       <c r="H92"/>
       <c r="I92"/>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92"/>
+      <c r="J92" t="n">
+        <v>14</v>
+      </c>
+      <c r="K92" t="s">
+        <v>24</v>
+      </c>
+      <c r="L92" t="s">
+        <v>27</v>
+      </c>
+      <c r="M92" t="n">
+        <v>27</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
-      <c r="R92"/>
-      <c r="S92"/>
-      <c r="T92"/>
+      <c r="R92" t="n">
+        <v>1914.3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1</v>
+      </c>
       <c r="U92" t="n">
         <v>54.8</v>
       </c>
@@ -4142,7 +5424,7 @@
         <v>2021</v>
       </c>
       <c r="D93" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E93" t="n">
         <v>29</v>
@@ -4155,17 +5437,33 @@
       </c>
       <c r="H93"/>
       <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
+      <c r="J93" t="n">
+        <v>13</v>
+      </c>
+      <c r="K93" t="s">
+        <v>24</v>
+      </c>
+      <c r="L93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M93" t="n">
+        <v>28</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
-      <c r="R93"/>
-      <c r="S93"/>
-      <c r="T93"/>
+      <c r="R93" t="n">
+        <v>2130.5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>12</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1</v>
+      </c>
       <c r="U93" t="n">
         <v>54.8</v>
       </c>
@@ -4181,7 +5479,7 @@
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E94" t="n">
         <v>29</v>
@@ -4195,15 +5493,25 @@
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94"/>
-      <c r="K94"/>
-      <c r="L94"/>
-      <c r="M94"/>
+      <c r="K94" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94" t="s">
+        <v>27</v>
+      </c>
+      <c r="M94" t="n">
+        <v>24</v>
+      </c>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
-      <c r="R94"/>
-      <c r="S94"/>
+      <c r="R94" t="n">
+        <v>999.2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>13.3</v>
+      </c>
       <c r="T94"/>
       <c r="U94" t="n">
         <v>54.5</v>
@@ -4220,7 +5528,7 @@
         <v>2021</v>
       </c>
       <c r="D95" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E95" t="n">
         <v>30</v>
@@ -4233,17 +5541,33 @@
       </c>
       <c r="H95"/>
       <c r="I95"/>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95"/>
+      <c r="J95" t="n">
+        <v>16</v>
+      </c>
+      <c r="K95" t="s">
+        <v>24</v>
+      </c>
+      <c r="L95" t="s">
+        <v>27</v>
+      </c>
+      <c r="M95" t="n">
+        <v>24</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95"/>
-      <c r="R95"/>
-      <c r="S95"/>
-      <c r="T95"/>
+      <c r="R95" t="n">
+        <v>2083.1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U95" t="n">
         <v>53.8</v>
       </c>
@@ -4259,7 +5583,7 @@
         <v>2021</v>
       </c>
       <c r="D96" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E96" t="n">
         <v>30</v>
@@ -4272,17 +5596,33 @@
       </c>
       <c r="H96"/>
       <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96"/>
+      <c r="J96" t="n">
+        <v>21</v>
+      </c>
+      <c r="K96" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96" t="s">
+        <v>27</v>
+      </c>
+      <c r="M96" t="n">
+        <v>30</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
-      <c r="R96"/>
-      <c r="S96"/>
-      <c r="T96"/>
+      <c r="R96" t="n">
+        <v>2144</v>
+      </c>
+      <c r="S96" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U96" t="n">
         <v>54.4</v>
       </c>
@@ -4298,7 +5638,7 @@
         <v>2021</v>
       </c>
       <c r="D97" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E97" t="n">
         <v>30</v>
@@ -4312,15 +5652,25 @@
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97"/>
+      <c r="K97" t="s">
+        <v>24</v>
+      </c>
+      <c r="L97" t="s">
+        <v>27</v>
+      </c>
+      <c r="M97" t="n">
+        <v>26</v>
+      </c>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
-      <c r="R97"/>
-      <c r="S97"/>
+      <c r="R97" t="n">
+        <v>2220.7</v>
+      </c>
+      <c r="S97" t="n">
+        <v>15.4</v>
+      </c>
       <c r="T97"/>
       <c r="U97" t="n">
         <v>54.5</v>
@@ -4331,7 +5681,7 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C98" t="n">
         <v>2021</v>
@@ -4351,13 +5701,13 @@
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K98" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L98" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M98" t="n">
         <v>25</v>
@@ -4386,7 +5736,7 @@
         <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C99" t="n">
         <v>2021</v>
@@ -4406,13 +5756,13 @@
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K99" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L99" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M99" t="n">
         <v>24</v>
@@ -4447,7 +5797,7 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C100" t="n">
         <v>2021</v>
@@ -4468,10 +5818,10 @@
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L100" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M100"/>
       <c r="N100"/>
@@ -4494,13 +5844,13 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C101" t="n">
         <v>2021</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E101" t="n">
         <v>2</v>
@@ -4514,13 +5864,13 @@
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L101" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M101" t="n">
         <v>24</v>
@@ -4555,13 +5905,13 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C102" t="n">
         <v>2021</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E102" t="n">
         <v>2</v>
@@ -4575,13 +5925,13 @@
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L102" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M102" t="n">
         <v>24</v>
@@ -4616,13 +5966,13 @@
         <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C103" t="n">
         <v>2021</v>
       </c>
       <c r="D103" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E103" t="n">
         <v>2</v>
@@ -4637,10 +5987,10 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L103" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M103"/>
       <c r="N103"/>
@@ -4663,13 +6013,13 @@
         <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C104" t="n">
         <v>2021</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
@@ -4683,13 +6033,13 @@
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K104" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L104" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M104" t="n">
         <v>30</v>
@@ -4724,13 +6074,13 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C105" t="n">
         <v>2021</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E105" t="n">
         <v>3</v>
@@ -4744,13 +6094,13 @@
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="K105" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L105" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M105" t="n">
         <v>32</v>
@@ -4785,13 +6135,13 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C106" t="n">
         <v>2021</v>
       </c>
       <c r="D106" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E106" t="n">
         <v>3</v>
@@ -4806,10 +6156,10 @@
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L106" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M106"/>
       <c r="N106"/>
@@ -4832,13 +6182,13 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C107" t="n">
         <v>2021</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -4852,13 +6202,13 @@
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K107" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L107" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M107" t="n">
         <v>24</v>
@@ -4893,13 +6243,13 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C108" t="n">
         <v>2021</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -4913,13 +6263,13 @@
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="K108" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L108" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M108" t="n">
         <v>25</v>
@@ -4954,13 +6304,13 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C109" t="n">
         <v>2021</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -4975,10 +6325,10 @@
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L109" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M109"/>
       <c r="N109"/>
@@ -5001,13 +6351,13 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C110" t="n">
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -5021,13 +6371,13 @@
       <c r="H110"/>
       <c r="I110"/>
       <c r="J110" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L110" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M110" t="n">
         <v>31</v>
@@ -5062,13 +6412,13 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C111" t="n">
         <v>2021</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -5082,13 +6432,13 @@
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L111" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M111" t="n">
         <v>24</v>
@@ -5123,13 +6473,13 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C112" t="n">
         <v>2021</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -5144,10 +6494,10 @@
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L112" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M112"/>
       <c r="N112"/>
@@ -5170,13 +6520,13 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C113" t="n">
         <v>2021</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E113" t="n">
         <v>6</v>
@@ -5190,13 +6540,13 @@
       <c r="H113"/>
       <c r="I113"/>
       <c r="J113" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K113" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L113" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M113" t="n">
         <v>36</v>
@@ -5231,13 +6581,13 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C114" t="n">
         <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E114" t="n">
         <v>6</v>
@@ -5251,13 +6601,13 @@
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K114" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L114" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M114" t="n">
         <v>34</v>
@@ -5292,13 +6642,13 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C115" t="n">
         <v>2021</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E115" t="n">
         <v>6</v>
@@ -5313,10 +6663,10 @@
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L115" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M115"/>
       <c r="N115"/>
@@ -5339,13 +6689,13 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C116" t="n">
         <v>2021</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -5359,13 +6709,13 @@
       <c r="H116"/>
       <c r="I116"/>
       <c r="J116" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K116" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L116" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M116" t="n">
         <v>49</v>
@@ -5400,13 +6750,13 @@
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C117" t="n">
         <v>2021</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -5420,13 +6770,13 @@
       <c r="H117"/>
       <c r="I117"/>
       <c r="J117" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K117" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L117" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M117" t="n">
         <v>51</v>
@@ -5461,13 +6811,13 @@
         <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C118" t="n">
         <v>2021</v>
       </c>
       <c r="D118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -5482,10 +6832,10 @@
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L118" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M118"/>
       <c r="N118"/>
@@ -5508,13 +6858,13 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C119" t="n">
         <v>2021</v>
       </c>
       <c r="D119" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -5528,13 +6878,13 @@
       <c r="H119"/>
       <c r="I119"/>
       <c r="J119" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K119" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L119" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M119" t="n">
         <v>49</v>
@@ -5569,13 +6919,13 @@
         <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C120" t="n">
         <v>2021</v>
       </c>
       <c r="D120" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -5589,13 +6939,13 @@
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K120" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L120" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M120" t="n">
         <v>48</v>
@@ -5630,13 +6980,13 @@
         <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C121" t="n">
         <v>2021</v>
       </c>
       <c r="D121" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -5651,10 +7001,10 @@
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L121" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M121"/>
       <c r="N121"/>
@@ -5677,13 +7027,13 @@
         <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C122" t="n">
         <v>2021</v>
       </c>
       <c r="D122" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -5697,13 +7047,13 @@
       <c r="H122"/>
       <c r="I122"/>
       <c r="J122" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L122" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M122" t="n">
         <v>22</v>
@@ -5738,13 +7088,13 @@
         <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C123" t="n">
         <v>2021</v>
       </c>
       <c r="D123" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -5758,13 +7108,13 @@
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L123" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M123" t="n">
         <v>23</v>
@@ -5799,13 +7149,13 @@
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C124" t="n">
         <v>2021</v>
       </c>
       <c r="D124" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -5820,10 +7170,10 @@
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L124" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M124"/>
       <c r="N124"/>
@@ -5846,13 +7196,13 @@
         <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C125" t="n">
         <v>2021</v>
       </c>
       <c r="D125" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -5866,13 +7216,13 @@
       <c r="H125"/>
       <c r="I125"/>
       <c r="J125" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K125" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L125" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M125" t="n">
         <v>23</v>
@@ -5907,13 +7257,13 @@
         <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C126" t="n">
         <v>2021</v>
       </c>
       <c r="D126" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -5927,13 +7277,13 @@
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L126" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M126" t="n">
         <v>23</v>
@@ -5968,13 +7318,13 @@
         <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C127" t="n">
         <v>2021</v>
       </c>
       <c r="D127" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E127" t="n">
         <v>10</v>
@@ -5989,10 +7339,10 @@
       <c r="I127"/>
       <c r="J127"/>
       <c r="K127" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L127" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M127"/>
       <c r="N127"/>
@@ -6015,13 +7365,13 @@
         <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C128" t="n">
         <v>2021</v>
       </c>
       <c r="D128" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E128" t="n">
         <v>11</v>
@@ -6035,13 +7385,13 @@
       <c r="H128"/>
       <c r="I128"/>
       <c r="J128" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K128" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L128" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M128" t="n">
         <v>26</v>
@@ -6076,13 +7426,13 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C129" t="n">
         <v>2021</v>
       </c>
       <c r="D129" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E129" t="n">
         <v>11</v>
@@ -6096,13 +7446,13 @@
       <c r="H129"/>
       <c r="I129"/>
       <c r="J129" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="K129" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L129" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M129" t="n">
         <v>24</v>
@@ -6137,13 +7487,13 @@
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C130" t="n">
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E130" t="n">
         <v>11</v>
@@ -6158,10 +7508,10 @@
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L130" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M130"/>
       <c r="N130"/>
@@ -6184,13 +7534,13 @@
         <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C131" t="n">
         <v>2021</v>
       </c>
       <c r="D131" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E131" t="n">
         <v>12</v>
@@ -6204,13 +7554,13 @@
       <c r="H131"/>
       <c r="I131"/>
       <c r="J131" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K131" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L131" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M131" t="n">
         <v>22</v>
@@ -6245,13 +7595,13 @@
         <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C132" t="n">
         <v>2021</v>
       </c>
       <c r="D132" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E132" t="n">
         <v>12</v>
@@ -6265,13 +7615,13 @@
       <c r="H132"/>
       <c r="I132"/>
       <c r="J132" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K132" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L132" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M132" t="n">
         <v>22</v>
@@ -6306,13 +7656,13 @@
         <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C133" t="n">
         <v>2021</v>
       </c>
       <c r="D133" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E133" t="n">
         <v>12</v>
@@ -6326,13 +7676,13 @@
       <c r="H133"/>
       <c r="I133"/>
       <c r="J133" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K133" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L133" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M133" t="n">
         <v>22</v>
@@ -6367,13 +7717,13 @@
         <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C134" t="n">
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E134" t="n">
         <v>12</v>
@@ -6387,13 +7737,13 @@
       <c r="H134"/>
       <c r="I134"/>
       <c r="J134" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K134" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L134" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M134" t="n">
         <v>24</v>
@@ -6428,13 +7778,13 @@
         <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C135" t="n">
         <v>2021</v>
       </c>
       <c r="D135" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E135" t="n">
         <v>12</v>
@@ -6449,10 +7799,10 @@
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L135" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M135"/>
       <c r="N135"/>
@@ -6475,13 +7825,13 @@
         <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C136" t="n">
         <v>2021</v>
       </c>
       <c r="D136" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -6495,13 +7845,13 @@
       <c r="H136"/>
       <c r="I136"/>
       <c r="J136" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K136" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L136" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M136" t="n">
         <v>28</v>
@@ -6536,13 +7886,13 @@
         <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C137" t="n">
         <v>2021</v>
       </c>
       <c r="D137" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -6556,13 +7906,13 @@
       <c r="H137"/>
       <c r="I137"/>
       <c r="J137" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="K137" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L137" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M137" t="n">
         <v>29</v>
@@ -6597,13 +7947,13 @@
         <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C138" t="n">
         <v>2021</v>
       </c>
       <c r="D138" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -6618,10 +7968,10 @@
       <c r="I138"/>
       <c r="J138"/>
       <c r="K138" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L138" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M138"/>
       <c r="N138"/>
@@ -6644,13 +7994,13 @@
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C139" t="n">
         <v>2021</v>
       </c>
       <c r="D139" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E139" t="n">
         <v>14</v>
@@ -6664,13 +8014,13 @@
       <c r="H139"/>
       <c r="I139"/>
       <c r="J139" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K139" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L139" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M139" t="n">
         <v>28</v>
@@ -6705,13 +8055,13 @@
         <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C140" t="n">
         <v>2021</v>
       </c>
       <c r="D140" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E140" t="n">
         <v>14</v>
@@ -6725,13 +8075,13 @@
       <c r="H140"/>
       <c r="I140"/>
       <c r="J140" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K140" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L140" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M140" t="n">
         <v>27</v>
@@ -6766,13 +8116,13 @@
         <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C141" t="n">
         <v>2021</v>
       </c>
       <c r="D141" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E141" t="n">
         <v>14</v>
@@ -6787,10 +8137,10 @@
       <c r="I141"/>
       <c r="J141"/>
       <c r="K141" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L141" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M141"/>
       <c r="N141"/>
@@ -6813,13 +8163,13 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C142" t="n">
         <v>2021</v>
       </c>
       <c r="D142" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E142" t="n">
         <v>15</v>
@@ -6833,13 +8183,13 @@
       <c r="H142"/>
       <c r="I142"/>
       <c r="J142" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L142" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M142" t="n">
         <v>27</v>
@@ -6874,13 +8224,13 @@
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C143" t="n">
         <v>2021</v>
       </c>
       <c r="D143" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E143" t="n">
         <v>15</v>
@@ -6894,13 +8244,13 @@
       <c r="H143"/>
       <c r="I143"/>
       <c r="J143" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L143" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M143" t="n">
         <v>27</v>
@@ -6935,13 +8285,13 @@
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C144" t="n">
         <v>2021</v>
       </c>
       <c r="D144" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E144" t="n">
         <v>15</v>
@@ -6956,10 +8306,10 @@
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L144" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M144"/>
       <c r="N144"/>
@@ -6982,13 +8332,13 @@
         <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C145" t="n">
         <v>2021</v>
       </c>
       <c r="D145" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -7002,13 +8352,13 @@
       <c r="H145"/>
       <c r="I145"/>
       <c r="J145" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K145" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L145" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M145" t="n">
         <v>49</v>
@@ -7043,13 +8393,13 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C146" t="n">
         <v>2021</v>
       </c>
       <c r="D146" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -7063,13 +8413,13 @@
       <c r="H146"/>
       <c r="I146"/>
       <c r="J146" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K146" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L146" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M146" t="n">
         <v>52</v>
@@ -7104,13 +8454,13 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C147" t="n">
         <v>2021</v>
       </c>
       <c r="D147" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -7125,10 +8475,10 @@
       <c r="I147"/>
       <c r="J147"/>
       <c r="K147" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L147" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M147"/>
       <c r="N147"/>
@@ -7151,13 +8501,13 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C148" t="n">
         <v>2021</v>
       </c>
       <c r="D148" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E148" t="n">
         <v>17</v>
@@ -7171,13 +8521,13 @@
       <c r="H148"/>
       <c r="I148"/>
       <c r="J148" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K148" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L148" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M148" t="n">
         <v>27</v>
@@ -7212,13 +8562,13 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C149" t="n">
         <v>2021</v>
       </c>
       <c r="D149" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E149" t="n">
         <v>17</v>
@@ -7232,13 +8582,13 @@
       <c r="H149"/>
       <c r="I149"/>
       <c r="J149" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K149" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L149" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M149" t="n">
         <v>28</v>
@@ -7273,13 +8623,13 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C150" t="n">
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E150" t="n">
         <v>17</v>
@@ -7294,10 +8644,10 @@
       <c r="I150"/>
       <c r="J150"/>
       <c r="K150" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L150" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M150"/>
       <c r="N150"/>
@@ -7320,13 +8670,13 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C151" t="n">
         <v>2021</v>
       </c>
       <c r="D151" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E151" t="n">
         <v>18</v>
@@ -7340,13 +8690,13 @@
       <c r="H151"/>
       <c r="I151"/>
       <c r="J151" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K151" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L151" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M151" t="n">
         <v>32</v>
@@ -7381,13 +8731,13 @@
         <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C152" t="n">
         <v>2021</v>
       </c>
       <c r="D152" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E152" t="n">
         <v>18</v>
@@ -7401,13 +8751,13 @@
       <c r="H152"/>
       <c r="I152"/>
       <c r="J152" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K152" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L152" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M152" t="n">
         <v>33</v>
@@ -7442,13 +8792,13 @@
         <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C153" t="n">
         <v>2021</v>
       </c>
       <c r="D153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E153" t="n">
         <v>18</v>
@@ -7463,10 +8813,10 @@
       <c r="I153"/>
       <c r="J153"/>
       <c r="K153" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L153" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M153"/>
       <c r="N153"/>
@@ -7489,13 +8839,13 @@
         <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C154" t="n">
         <v>2021</v>
       </c>
       <c r="D154" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E154" t="n">
         <v>19</v>
@@ -7509,13 +8859,13 @@
       <c r="H154"/>
       <c r="I154"/>
       <c r="J154" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K154" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L154" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M154" t="n">
         <v>36</v>
@@ -7550,13 +8900,13 @@
         <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C155" t="n">
         <v>2021</v>
       </c>
       <c r="D155" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E155" t="n">
         <v>19</v>
@@ -7570,13 +8920,13 @@
       <c r="H155"/>
       <c r="I155"/>
       <c r="J155" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K155" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L155" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M155" t="n">
         <v>35</v>
@@ -7611,13 +8961,13 @@
         <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C156" t="n">
         <v>2021</v>
       </c>
       <c r="D156" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E156" t="n">
         <v>19</v>
@@ -7632,10 +8982,10 @@
       <c r="I156"/>
       <c r="J156"/>
       <c r="K156" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L156" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M156"/>
       <c r="N156"/>
@@ -7658,13 +9008,13 @@
         <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C157" t="n">
         <v>2021</v>
       </c>
       <c r="D157" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E157" t="n">
         <v>20</v>
@@ -7678,13 +9028,13 @@
       <c r="H157"/>
       <c r="I157"/>
       <c r="J157" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K157" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L157" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M157" t="n">
         <v>33</v>
@@ -7719,13 +9069,13 @@
         <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C158" t="n">
         <v>2021</v>
       </c>
       <c r="D158" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E158" t="n">
         <v>20</v>
@@ -7739,13 +9089,13 @@
       <c r="H158"/>
       <c r="I158"/>
       <c r="J158" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K158" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L158" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M158" t="n">
         <v>33</v>
@@ -7780,13 +9130,13 @@
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C159" t="n">
         <v>2021</v>
       </c>
       <c r="D159" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E159" t="n">
         <v>20</v>
@@ -7800,13 +9150,13 @@
       <c r="H159"/>
       <c r="I159"/>
       <c r="J159" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K159" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L159" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M159" t="n">
         <v>35</v>
@@ -7841,13 +9191,13 @@
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C160" t="n">
         <v>2021</v>
       </c>
       <c r="D160" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E160" t="n">
         <v>20</v>
@@ -7862,10 +9212,10 @@
       <c r="I160"/>
       <c r="J160"/>
       <c r="K160" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L160" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M160"/>
       <c r="N160"/>
@@ -7888,13 +9238,13 @@
         <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C161" t="n">
         <v>2021</v>
       </c>
       <c r="D161" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E161" t="n">
         <v>21</v>
@@ -7908,13 +9258,13 @@
       <c r="H161"/>
       <c r="I161"/>
       <c r="J161" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K161" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L161" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M161" t="n">
         <v>56</v>
@@ -7949,13 +9299,13 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C162" t="n">
         <v>2021</v>
       </c>
       <c r="D162" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E162" t="n">
         <v>21</v>
@@ -7969,13 +9319,13 @@
       <c r="H162"/>
       <c r="I162"/>
       <c r="J162" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K162" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L162" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M162" t="n">
         <v>59</v>
@@ -8010,13 +9360,13 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C163" t="n">
         <v>2021</v>
       </c>
       <c r="D163" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E163" t="n">
         <v>21</v>
@@ -8031,10 +9381,10 @@
       <c r="I163"/>
       <c r="J163"/>
       <c r="K163" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L163" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M163"/>
       <c r="N163"/>
@@ -8057,13 +9407,13 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C164" t="n">
         <v>2021</v>
       </c>
       <c r="D164" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E164" t="n">
         <v>22</v>
@@ -8077,13 +9427,13 @@
       <c r="H164"/>
       <c r="I164"/>
       <c r="J164" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K164" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L164" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M164" t="n">
         <v>48</v>
@@ -8118,13 +9468,13 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C165" t="n">
         <v>2021</v>
       </c>
       <c r="D165" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E165" t="n">
         <v>22</v>
@@ -8138,13 +9488,13 @@
       <c r="H165"/>
       <c r="I165"/>
       <c r="J165" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K165" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L165" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M165" t="n">
         <v>47</v>
@@ -8179,13 +9529,13 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C166" t="n">
         <v>2021</v>
       </c>
       <c r="D166" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E166" t="n">
         <v>22</v>
@@ -8200,10 +9550,10 @@
       <c r="I166"/>
       <c r="J166"/>
       <c r="K166" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L166" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M166"/>
       <c r="N166"/>
@@ -8226,13 +9576,13 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C167" t="n">
         <v>2021</v>
       </c>
       <c r="D167" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E167" t="n">
         <v>23</v>
@@ -8246,13 +9596,13 @@
       <c r="H167"/>
       <c r="I167"/>
       <c r="J167" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K167" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L167" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M167" t="n">
         <v>48</v>
@@ -8287,13 +9637,13 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C168" t="n">
         <v>2021</v>
       </c>
       <c r="D168" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E168" t="n">
         <v>23</v>
@@ -8307,13 +9657,13 @@
       <c r="H168"/>
       <c r="I168"/>
       <c r="J168" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K168" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L168" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M168" t="n">
         <v>48</v>
@@ -8348,13 +9698,13 @@
         <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C169" t="n">
         <v>2021</v>
       </c>
       <c r="D169" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E169" t="n">
         <v>23</v>
@@ -8369,10 +9719,10 @@
       <c r="I169"/>
       <c r="J169"/>
       <c r="K169" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L169" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M169"/>
       <c r="N169"/>
@@ -8395,13 +9745,13 @@
         <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C170" t="n">
         <v>2021</v>
       </c>
       <c r="D170" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E170" t="n">
         <v>24</v>
@@ -8415,13 +9765,13 @@
       <c r="H170"/>
       <c r="I170"/>
       <c r="J170" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K170" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L170" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M170" t="n">
         <v>52</v>
@@ -8456,13 +9806,13 @@
         <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C171" t="n">
         <v>2021</v>
       </c>
       <c r="D171" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E171" t="n">
         <v>24</v>
@@ -8476,13 +9826,13 @@
       <c r="H171"/>
       <c r="I171"/>
       <c r="J171" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K171" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L171" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M171" t="n">
         <v>50</v>
@@ -8517,13 +9867,13 @@
         <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C172" t="n">
         <v>2021</v>
       </c>
       <c r="D172" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E172" t="n">
         <v>24</v>
@@ -8538,10 +9888,10 @@
       <c r="I172"/>
       <c r="J172"/>
       <c r="K172" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L172" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M172"/>
       <c r="N172"/>
@@ -8564,13 +9914,13 @@
         <v>21</v>
       </c>
       <c r="B173" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C173" t="n">
         <v>2021</v>
       </c>
       <c r="D173" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E173" t="n">
         <v>25</v>
@@ -8584,13 +9934,13 @@
       <c r="H173"/>
       <c r="I173"/>
       <c r="J173" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K173" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L173" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M173" t="n">
         <v>50</v>
@@ -8625,13 +9975,13 @@
         <v>21</v>
       </c>
       <c r="B174" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C174" t="n">
         <v>2021</v>
       </c>
       <c r="D174" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E174" t="n">
         <v>25</v>
@@ -8645,13 +9995,13 @@
       <c r="H174"/>
       <c r="I174"/>
       <c r="J174" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K174" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L174" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M174" t="n">
         <v>51</v>
@@ -8686,13 +10036,13 @@
         <v>21</v>
       </c>
       <c r="B175" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C175" t="n">
         <v>2021</v>
       </c>
       <c r="D175" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E175" t="n">
         <v>25</v>
@@ -8707,10 +10057,10 @@
       <c r="I175"/>
       <c r="J175"/>
       <c r="K175" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L175" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M175"/>
       <c r="N175"/>
@@ -8733,13 +10083,13 @@
         <v>21</v>
       </c>
       <c r="B176" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C176" t="n">
         <v>2021</v>
       </c>
       <c r="D176" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E176" t="n">
         <v>26</v>
@@ -8753,13 +10103,13 @@
       <c r="H176"/>
       <c r="I176"/>
       <c r="J176" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="K176" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L176" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M176" t="n">
         <v>51</v>
@@ -8794,13 +10144,13 @@
         <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C177" t="n">
         <v>2021</v>
       </c>
       <c r="D177" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E177" t="n">
         <v>26</v>
@@ -8814,13 +10164,13 @@
       <c r="H177"/>
       <c r="I177"/>
       <c r="J177" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K177" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L177" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M177" t="n">
         <v>54</v>
@@ -8855,13 +10205,13 @@
         <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C178" t="n">
         <v>2021</v>
       </c>
       <c r="D178" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E178" t="n">
         <v>26</v>
@@ -8876,10 +10226,10 @@
       <c r="I178"/>
       <c r="J178"/>
       <c r="K178" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L178" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M178"/>
       <c r="N178"/>
@@ -8902,13 +10252,13 @@
         <v>21</v>
       </c>
       <c r="B179" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C179" t="n">
         <v>2021</v>
       </c>
       <c r="D179" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E179" t="n">
         <v>27</v>
@@ -8922,13 +10272,13 @@
       <c r="H179"/>
       <c r="I179"/>
       <c r="J179" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K179" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L179" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M179" t="n">
         <v>44</v>
@@ -8963,13 +10313,13 @@
         <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C180" t="n">
         <v>2021</v>
       </c>
       <c r="D180" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E180" t="n">
         <v>27</v>
@@ -8983,13 +10333,13 @@
       <c r="H180"/>
       <c r="I180"/>
       <c r="J180" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K180" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L180" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M180" t="n">
         <v>46</v>
@@ -9024,13 +10374,13 @@
         <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C181" t="n">
         <v>2021</v>
       </c>
       <c r="D181" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E181" t="n">
         <v>27</v>
@@ -9045,10 +10395,10 @@
       <c r="I181"/>
       <c r="J181"/>
       <c r="K181" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L181" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M181"/>
       <c r="N181"/>
@@ -9071,13 +10421,13 @@
         <v>21</v>
       </c>
       <c r="B182" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D182" t="s">
         <v>53</v>
-      </c>
-      <c r="C182" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D182" t="s">
-        <v>50</v>
       </c>
       <c r="E182" t="n">
         <v>28</v>
@@ -9091,13 +10441,13 @@
       <c r="H182"/>
       <c r="I182"/>
       <c r="J182" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K182" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L182" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M182" t="n">
         <v>29</v>
@@ -9132,13 +10482,13 @@
         <v>21</v>
       </c>
       <c r="B183" t="s">
+        <v>57</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D183" t="s">
         <v>53</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D183" t="s">
-        <v>50</v>
       </c>
       <c r="E183" t="n">
         <v>28</v>
@@ -9152,13 +10502,13 @@
       <c r="H183"/>
       <c r="I183"/>
       <c r="J183" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K183" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L183" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M183" t="n">
         <v>27</v>
@@ -9193,13 +10543,13 @@
         <v>21</v>
       </c>
       <c r="B184" t="s">
+        <v>57</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D184" t="s">
         <v>53</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D184" t="s">
-        <v>50</v>
       </c>
       <c r="E184" t="n">
         <v>28</v>
@@ -9214,10 +10564,10 @@
       <c r="I184"/>
       <c r="J184"/>
       <c r="K184" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L184" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M184"/>
       <c r="N184"/>
@@ -9240,13 +10590,13 @@
         <v>21</v>
       </c>
       <c r="B185" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C185" t="n">
         <v>2021</v>
       </c>
       <c r="D185" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E185" t="n">
         <v>29</v>
@@ -9260,13 +10610,13 @@
       <c r="H185"/>
       <c r="I185"/>
       <c r="J185" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K185" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L185" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M185" t="n">
         <v>28</v>
@@ -9301,13 +10651,13 @@
         <v>21</v>
       </c>
       <c r="B186" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C186" t="n">
         <v>2021</v>
       </c>
       <c r="D186" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E186" t="n">
         <v>29</v>
@@ -9321,13 +10671,13 @@
       <c r="H186"/>
       <c r="I186"/>
       <c r="J186" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K186" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L186" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M186" t="n">
         <v>27</v>
@@ -9362,13 +10712,13 @@
         <v>21</v>
       </c>
       <c r="B187" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C187" t="n">
         <v>2021</v>
       </c>
       <c r="D187" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E187" t="n">
         <v>29</v>
@@ -9383,10 +10733,10 @@
       <c r="I187"/>
       <c r="J187"/>
       <c r="K187" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L187" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M187"/>
       <c r="N187"/>
@@ -9409,13 +10759,13 @@
         <v>21</v>
       </c>
       <c r="B188" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C188" t="n">
         <v>2021</v>
       </c>
       <c r="D188" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E188" t="n">
         <v>30</v>
@@ -9429,13 +10779,13 @@
       <c r="H188"/>
       <c r="I188"/>
       <c r="J188" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K188" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L188" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M188" t="n">
         <v>30</v>
@@ -9470,13 +10820,13 @@
         <v>21</v>
       </c>
       <c r="B189" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C189" t="n">
         <v>2021</v>
       </c>
       <c r="D189" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E189" t="n">
         <v>30</v>
@@ -9490,13 +10840,13 @@
       <c r="H189"/>
       <c r="I189"/>
       <c r="J189" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K189" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L189" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M189" t="n">
         <v>32</v>
@@ -9531,13 +10881,13 @@
         <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C190" t="n">
         <v>2021</v>
       </c>
       <c r="D190" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E190" t="n">
         <v>30</v>
@@ -9552,10 +10902,10 @@
       <c r="I190"/>
       <c r="J190"/>
       <c r="K190" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L190" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M190"/>
       <c r="N190"/>

--- a/exports/yield_files/HIF 6.xlsx
+++ b/exports/yield_files/HIF 6.xlsx
@@ -627,9 +627,15 @@
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="O2" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>40.92</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>65.06</v>
+      </c>
       <c r="R2" t="n">
         <v>2041.1</v>
       </c>
@@ -682,9 +688,15 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="O3" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>65.12</v>
+      </c>
       <c r="R3" t="n">
         <v>2240.2</v>
       </c>
@@ -786,9 +798,15 @@
       <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
+      <c r="O5" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="P5" t="n">
+        <v>44.55</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>66.78</v>
+      </c>
       <c r="R5" t="n">
         <v>1956.9</v>
       </c>
@@ -841,9 +859,15 @@
       <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="O6" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="P6" t="n">
+        <v>43.93</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>66.04</v>
+      </c>
       <c r="R6" t="n">
         <v>2121.1</v>
       </c>
@@ -945,9 +969,15 @@
       <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
+      <c r="O8" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="P8" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>65.02</v>
+      </c>
       <c r="R8" t="n">
         <v>1567.5</v>
       </c>
@@ -1000,9 +1030,15 @@
       <c r="N9" t="n">
         <v>1</v>
       </c>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
+      <c r="O9" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="P9" t="n">
+        <v>41.24</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>64.3</v>
+      </c>
       <c r="R9" t="n">
         <v>1383.7</v>
       </c>
@@ -1104,9 +1140,15 @@
       <c r="N11" t="n">
         <v>1</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="O11" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>38.48</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>63.28</v>
+      </c>
       <c r="R11" t="n">
         <v>1243.2</v>
       </c>
@@ -1159,9 +1201,15 @@
       <c r="N12" t="n">
         <v>1.5</v>
       </c>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
+      <c r="O12" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="P12" t="n">
+        <v>40.07</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>64.11</v>
+      </c>
       <c r="R12" t="n">
         <v>1802</v>
       </c>
@@ -1312,9 +1360,15 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
+      <c r="O15" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="P15" t="n">
+        <v>44.78</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>66.86</v>
+      </c>
       <c r="R15" t="n">
         <v>1323.5</v>
       </c>
@@ -1367,9 +1421,15 @@
       <c r="N16" t="n">
         <v>1.5</v>
       </c>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
+      <c r="O16" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="P16" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>66.88</v>
+      </c>
       <c r="R16" t="n">
         <v>1299.5</v>
       </c>
@@ -1471,9 +1531,15 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
+      <c r="O18" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="P18" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>68.04</v>
+      </c>
       <c r="R18" t="n">
         <v>1444.5</v>
       </c>
@@ -1526,9 +1592,15 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+      <c r="O19" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="P19" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>68.53</v>
+      </c>
       <c r="R19" t="n">
         <v>1401.2</v>
       </c>
@@ -1630,9 +1702,15 @@
       <c r="N21" t="n">
         <v>1.5</v>
       </c>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
+      <c r="O21" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="P21" t="n">
+        <v>39.31</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>64.12</v>
+      </c>
       <c r="R21" t="n">
         <v>1478.5</v>
       </c>
@@ -1685,9 +1763,15 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="O22" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="P22" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>65.31</v>
+      </c>
       <c r="R22" t="n">
         <v>1420.5</v>
       </c>
@@ -1740,9 +1824,15 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="O23" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="P23" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>65.31</v>
+      </c>
       <c r="R23" t="n">
         <v>1420.5</v>
       </c>
@@ -1844,9 +1934,15 @@
       <c r="N25" t="n">
         <v>1.5</v>
       </c>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
+      <c r="O25" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="P25" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>65.64</v>
+      </c>
       <c r="R25" t="n">
         <v>1475</v>
       </c>
@@ -1899,9 +1995,15 @@
       <c r="N26" t="n">
         <v>1.5</v>
       </c>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+      <c r="O26" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="P26" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>65.64</v>
+      </c>
       <c r="R26" t="n">
         <v>1475</v>
       </c>
@@ -1954,9 +2056,15 @@
       <c r="N27" t="n">
         <v>1.5</v>
       </c>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
+      <c r="O27" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="P27" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>65.96</v>
+      </c>
       <c r="R27" t="n">
         <v>1536.8</v>
       </c>
@@ -2009,9 +2117,15 @@
       <c r="N28" t="n">
         <v>1.5</v>
       </c>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
+      <c r="O28" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="P28" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>65.96</v>
+      </c>
       <c r="R28" t="n">
         <v>1536.8</v>
       </c>
@@ -2113,9 +2227,15 @@
       <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
+      <c r="O30" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="P30" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>63.69</v>
+      </c>
       <c r="R30" t="n">
         <v>1221.8</v>
       </c>
@@ -2168,9 +2288,15 @@
       <c r="N31" t="n">
         <v>1.5</v>
       </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
+      <c r="O31" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="P31" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>65.41</v>
+      </c>
       <c r="R31" t="n">
         <v>1558.8</v>
       </c>
@@ -2223,9 +2349,15 @@
       <c r="N32" t="n">
         <v>1.5</v>
       </c>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
+      <c r="O32" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="P32" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>65.41</v>
+      </c>
       <c r="R32" t="n">
         <v>1558.8</v>
       </c>
@@ -2376,9 +2508,15 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
+      <c r="O35" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="P35" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>64.44</v>
+      </c>
       <c r="R35" t="n">
         <v>1289.9</v>
       </c>
@@ -2431,9 +2569,15 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
+      <c r="O36" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="P36" t="n">
+        <v>41.07</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>64.56</v>
+      </c>
       <c r="R36" t="n">
         <v>1659.6</v>
       </c>
@@ -2535,9 +2679,15 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
+      <c r="O38" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="P38" t="n">
+        <v>40.83</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>64.52</v>
+      </c>
       <c r="R38" t="n">
         <v>1353.1</v>
       </c>
@@ -2590,9 +2740,15 @@
       <c r="N39" t="n">
         <v>2</v>
       </c>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
+      <c r="O39" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="P39" t="n">
+        <v>39.29</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>63.89</v>
+      </c>
       <c r="R39" t="n">
         <v>1531.3</v>
       </c>
@@ -2694,9 +2850,15 @@
       <c r="N41" t="n">
         <v>1</v>
       </c>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
+      <c r="O41" t="n">
+        <v>25.21</v>
+      </c>
+      <c r="P41" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>63.28</v>
+      </c>
       <c r="R41" t="n">
         <v>1129.8</v>
       </c>
@@ -2749,9 +2911,15 @@
       <c r="N42" t="n">
         <v>1.5</v>
       </c>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
+      <c r="O42" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="P42" t="n">
+        <v>40.34</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>64.38</v>
+      </c>
       <c r="R42" t="n">
         <v>1522.4</v>
       </c>
@@ -2853,9 +3021,15 @@
       <c r="N44" t="n">
         <v>1.5</v>
       </c>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
+      <c r="O44" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="P44" t="n">
+        <v>39.87</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>63.77</v>
+      </c>
       <c r="R44" t="n">
         <v>1605.2</v>
       </c>
@@ -2908,9 +3082,15 @@
       <c r="N45" t="n">
         <v>1.5</v>
       </c>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
+      <c r="O45" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="P45" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>64.28</v>
+      </c>
       <c r="R45" t="n">
         <v>1568.5</v>
       </c>
@@ -3012,9 +3192,15 @@
       <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
+      <c r="O47" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="P47" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>64.48</v>
+      </c>
       <c r="R47" t="n">
         <v>1172.7</v>
       </c>
@@ -3067,9 +3253,15 @@
       <c r="N48" t="n">
         <v>1</v>
       </c>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
+      <c r="O48" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="P48" t="n">
+        <v>38.94</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>63.82</v>
+      </c>
       <c r="R48" t="n">
         <v>1169.5</v>
       </c>
@@ -3171,9 +3363,15 @@
       <c r="N50" t="n">
         <v>1</v>
       </c>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
+      <c r="O50" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="P50" t="n">
+        <v>44.36</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>66.06</v>
+      </c>
       <c r="R50" t="n">
         <v>939.6</v>
       </c>
@@ -3226,9 +3424,15 @@
       <c r="N51" t="n">
         <v>1</v>
       </c>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
+      <c r="O51" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="P51" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>65.72</v>
+      </c>
       <c r="R51" t="n">
         <v>1110.6</v>
       </c>
@@ -3330,9 +3534,15 @@
       <c r="N53" t="n">
         <v>1</v>
       </c>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
+      <c r="O53" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="P53" t="n">
+        <v>42.58</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>66.3</v>
+      </c>
       <c r="R53" t="n">
         <v>787</v>
       </c>
@@ -3385,9 +3595,15 @@
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
+      <c r="O54" t="n">
+        <v>23</v>
+      </c>
+      <c r="P54" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>67.29</v>
+      </c>
       <c r="R54" t="n">
         <v>961.5</v>
       </c>
@@ -3489,9 +3705,15 @@
       <c r="N56" t="n">
         <v>1</v>
       </c>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
+      <c r="O56" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="P56" t="n">
+        <v>47.63</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>68.59</v>
+      </c>
       <c r="R56" t="n">
         <v>1697.6</v>
       </c>
@@ -3544,9 +3766,15 @@
       <c r="N57" t="n">
         <v>1.5</v>
       </c>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
+      <c r="O57" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="P57" t="n">
+        <v>47.75</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>68.19</v>
+      </c>
       <c r="R57" t="n">
         <v>1777.7</v>
       </c>
@@ -3648,9 +3876,15 @@
       <c r="N59" t="n">
         <v>1.5</v>
       </c>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
+      <c r="O59" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="P59" t="n">
+        <v>47.45</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>68.47</v>
+      </c>
       <c r="R59" t="n">
         <v>1620</v>
       </c>
@@ -3703,9 +3937,15 @@
       <c r="N60" t="n">
         <v>2</v>
       </c>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
+      <c r="O60" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="P60" t="n">
+        <v>49.01</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>69.74</v>
+      </c>
       <c r="R60" t="n">
         <v>1715.5</v>
       </c>
@@ -3807,9 +4047,15 @@
       <c r="N62" t="n">
         <v>1.5</v>
       </c>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
+      <c r="O62" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="P62" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>67.5</v>
+      </c>
       <c r="R62" t="n">
         <v>1721</v>
       </c>
@@ -3862,9 +4108,15 @@
       <c r="N63" t="n">
         <v>1.5</v>
       </c>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
+      <c r="O63" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="P63" t="n">
+        <v>48.83</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>68.86</v>
+      </c>
       <c r="R63" t="n">
         <v>1833.8</v>
       </c>
@@ -3966,9 +4218,15 @@
       <c r="N65" t="n">
         <v>1.5</v>
       </c>
-      <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
+      <c r="O65" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="P65" t="n">
+        <v>48.05</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>68.62</v>
+      </c>
       <c r="R65" t="n">
         <v>1445.5</v>
       </c>
@@ -4021,9 +4279,15 @@
       <c r="N66" t="n">
         <v>1.5</v>
       </c>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
+      <c r="O66" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>48.44</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>68.97</v>
+      </c>
       <c r="R66" t="n">
         <v>1746.8</v>
       </c>
@@ -4125,9 +4389,15 @@
       <c r="N68" t="n">
         <v>1.5</v>
       </c>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
+      <c r="O68" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="P68" t="n">
+        <v>39.74</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>64.38</v>
+      </c>
       <c r="R68" t="n">
         <v>1548.5</v>
       </c>
@@ -4180,9 +4450,15 @@
       <c r="N69" t="n">
         <v>2</v>
       </c>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
+      <c r="O69" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="P69" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>64.99</v>
+      </c>
       <c r="R69" t="n">
         <v>1571.9</v>
       </c>
@@ -4284,9 +4560,15 @@
       <c r="N71" t="n">
         <v>2</v>
       </c>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
+      <c r="O71" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="P71" t="n">
+        <v>40.92</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>65.07</v>
+      </c>
       <c r="R71" t="n">
         <v>1514.1</v>
       </c>
@@ -4339,9 +4621,15 @@
       <c r="N72" t="n">
         <v>1.5</v>
       </c>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
+      <c r="O72" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="P72" t="n">
+        <v>41.22</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>64.7</v>
+      </c>
       <c r="R72" t="n">
         <v>1709.9</v>
       </c>
@@ -4443,9 +4731,15 @@
       <c r="N74" t="n">
         <v>1</v>
       </c>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+      <c r="O74" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="P74" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>66.57</v>
+      </c>
       <c r="R74" t="n">
         <v>729</v>
       </c>
@@ -4498,9 +4792,15 @@
       <c r="N75" t="n">
         <v>2</v>
       </c>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
+      <c r="O75" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="P75" t="n">
+        <v>45.57</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>67.08</v>
+      </c>
       <c r="R75" t="n">
         <v>842.5</v>
       </c>
@@ -4602,9 +4902,15 @@
       <c r="N77" t="n">
         <v>1.5</v>
       </c>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
+      <c r="O77" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="P77" t="n">
+        <v>44.91</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>67.2</v>
+      </c>
       <c r="R77" t="n">
         <v>1613.9</v>
       </c>
@@ -4657,9 +4963,15 @@
       <c r="N78" t="n">
         <v>3</v>
       </c>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
+      <c r="O78" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="P78" t="n">
+        <v>46.28</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>68.35</v>
+      </c>
       <c r="R78" t="n">
         <v>1546.6</v>
       </c>
@@ -4761,9 +5073,15 @@
       <c r="N80" t="n">
         <v>2</v>
       </c>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
+      <c r="O80" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="P80" t="n">
+        <v>40.69</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>65.98</v>
+      </c>
       <c r="R80" t="n">
         <v>1487.1</v>
       </c>
@@ -4816,9 +5134,15 @@
       <c r="N81" t="n">
         <v>3</v>
       </c>
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
+      <c r="O81" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="P81" t="n">
+        <v>40.97</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>66.04</v>
+      </c>
       <c r="R81" t="n">
         <v>1551.1</v>
       </c>
@@ -4920,9 +5244,15 @@
       <c r="N83" t="n">
         <v>2</v>
       </c>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
+      <c r="O83" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="P83" t="n">
+        <v>43.65</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>67.03</v>
+      </c>
       <c r="R83" t="n">
         <v>1586</v>
       </c>
@@ -4975,9 +5305,15 @@
       <c r="N84" t="n">
         <v>2.5</v>
       </c>
-      <c r="O84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
+      <c r="O84" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="P84" t="n">
+        <v>44.65</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>67.06</v>
+      </c>
       <c r="R84" t="n">
         <v>1656.1</v>
       </c>
@@ -5079,9 +5415,15 @@
       <c r="N86" t="n">
         <v>2.5</v>
       </c>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
+      <c r="O86" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="P86" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>67.68</v>
+      </c>
       <c r="R86" t="n">
         <v>1366.9</v>
       </c>
@@ -5134,9 +5476,15 @@
       <c r="N87" t="n">
         <v>2</v>
       </c>
-      <c r="O87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
+      <c r="O87" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="P87" t="n">
+        <v>45.87</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>67.49</v>
+      </c>
       <c r="R87" t="n">
         <v>1382.8</v>
       </c>
@@ -5238,9 +5586,15 @@
       <c r="N89" t="n">
         <v>1</v>
       </c>
-      <c r="O89"/>
-      <c r="P89"/>
-      <c r="Q89"/>
+      <c r="O89" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="P89" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>62.24</v>
+      </c>
       <c r="R89" t="n">
         <v>1856.9</v>
       </c>
@@ -5293,9 +5647,15 @@
       <c r="N90" t="n">
         <v>1</v>
       </c>
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
+      <c r="O90" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="P90" t="n">
+        <v>40.32</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>62.78</v>
+      </c>
       <c r="R90" t="n">
         <v>2219.4</v>
       </c>
@@ -5397,9 +5757,15 @@
       <c r="N92" t="n">
         <v>1</v>
       </c>
-      <c r="O92"/>
-      <c r="P92"/>
-      <c r="Q92"/>
+      <c r="O92" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="P92" t="n">
+        <v>44.23</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>65.73</v>
+      </c>
       <c r="R92" t="n">
         <v>1914.3</v>
       </c>
@@ -5452,9 +5818,15 @@
       <c r="N93" t="n">
         <v>1.5</v>
       </c>
-      <c r="O93"/>
-      <c r="P93"/>
-      <c r="Q93"/>
+      <c r="O93" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="P93" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>65.37</v>
+      </c>
       <c r="R93" t="n">
         <v>2130.5</v>
       </c>
@@ -5556,9 +5928,15 @@
       <c r="N95" t="n">
         <v>1</v>
       </c>
-      <c r="O95"/>
-      <c r="P95"/>
-      <c r="Q95"/>
+      <c r="O95" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="P95" t="n">
+        <v>39.16</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>62.61</v>
+      </c>
       <c r="R95" t="n">
         <v>2083.1</v>
       </c>
@@ -5611,9 +5989,15 @@
       <c r="N96" t="n">
         <v>1</v>
       </c>
-      <c r="O96"/>
-      <c r="P96"/>
-      <c r="Q96"/>
+      <c r="O96" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="P96" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>61.82</v>
+      </c>
       <c r="R96" t="n">
         <v>2144</v>
       </c>
